--- a/medicine/Médecine vétérinaire/Cyclocotyla/Cyclocotyla.xlsx
+++ b/medicine/Médecine vétérinaire/Cyclocotyla/Cyclocotyla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyclocotyla est un genre de monogènes décrit pour la première fois en 1821. Il se compose actuellement d'une espèce valide, Cyclocotyla bellones, avec tous les autres anciens membres réaffectés à d'autres genres. Cependant, certains considèrent que le genre est actuellement un taxon inquirendum[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyclocotyla est un genre de monogènes décrit pour la première fois en 1821. Il se compose actuellement d'une espèce valide, Cyclocotyla bellones, avec tous les autres anciens membres réaffectés à d'autres genres. Cependant, certains considèrent que le genre est actuellement un taxon inquirendum.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Hyperparasite ou Épibionte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La seule espèce C. bellones est classiquement connue pour être hyperparasite . Elle vit sur l''isopode parasite Ceratothoa parallela (ou d'autres espèces du même genre), qui lui-même se nourrit des poissons Boops boops et Pagellus acarne[2].
-Cependant, dans une étude de 2022, il a été proposé que l'espèce n'était pas vraiment un hyperparasite, puisqu'elle ne se nourrissait pas de l'isopode mais plutôt à partir du poisson. Les auteurs ont conclu « Cyclocotyla bellones est donc à la fois un épibionte sur le crustacé et un parasite du poisson. Il pourrait être considéré comme un hyperparasite uniquement en termes de localisation (il vit sur un parasite), mais pas en termes de nutrition (il ne se nourrit pas d'un parasite mais d'un hôte qui n'est pas un parasite)»[3]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La seule espèce C. bellones est classiquement connue pour être hyperparasite . Elle vit sur l''isopode parasite Ceratothoa parallela (ou d'autres espèces du même genre), qui lui-même se nourrit des poissons Boops boops et Pagellus acarne.
+Cependant, dans une étude de 2022, il a été proposé que l'espèce n'était pas vraiment un hyperparasite, puisqu'elle ne se nourrissait pas de l'isopode mais plutôt à partir du poisson. Les auteurs ont conclu « Cyclocotyla bellones est donc à la fois un épibionte sur le crustacé et un parasite du poisson. Il pourrait être considéré comme un hyperparasite uniquement en termes de localisation (il vit sur un parasite), mais pas en termes de nutrition (il ne se nourrit pas d'un parasite mais d'un hôte qui n'est pas un parasite)»
 </t>
         </is>
       </c>
